--- a/data_year/zb/农业/有效灌溉面积、农用化肥施用量、农村水电站及用电量.xlsx
+++ b/data_year/zb/农业/有效灌溉面积、农用化肥施用量、农村水电站及用电量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,709 +483,419 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>29962</v>
+        <v>44815</v>
       </c>
       <c r="C2" t="n">
-        <v>698.5</v>
+        <v>5924.01906</v>
       </c>
       <c r="D2" t="n">
-        <v>2421.295147</v>
+        <v>6632.346918</v>
       </c>
       <c r="E2" t="n">
-        <v>4146.4122</v>
+        <v>5561.6799656749</v>
       </c>
       <c r="F2" t="n">
-        <v>917.87</v>
+        <v>1798.5017298163</v>
       </c>
       <c r="G2" t="n">
-        <v>2161.5559</v>
+        <v>2353.6819180408</v>
       </c>
       <c r="H2" t="n">
-        <v>690.471</v>
+        <v>805.6418963718</v>
       </c>
       <c r="I2" t="n">
-        <v>376.4953</v>
+        <v>586.4423214460001</v>
       </c>
       <c r="J2" t="n">
-        <v>53820.33</v>
+        <v>60347.698</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29183</v>
+        <v>45151</v>
       </c>
       <c r="C3" t="n">
-        <v>896.6</v>
+        <v>6212.3429</v>
       </c>
       <c r="D3" t="n">
-        <v>2610.8</v>
+        <v>7139.615368</v>
       </c>
       <c r="E3" t="n">
-        <v>4253.7634</v>
+        <v>5704.2356468</v>
       </c>
       <c r="F3" t="n">
-        <v>983.6852</v>
+        <v>1895.0858179363</v>
       </c>
       <c r="G3" t="n">
-        <v>2164.1123</v>
+        <v>2381.416694715</v>
       </c>
       <c r="H3" t="n">
-        <v>705.7297</v>
+        <v>819.1900880807</v>
       </c>
       <c r="I3" t="n">
-        <v>399.5662</v>
+        <v>605.1289431682</v>
       </c>
       <c r="J3" t="n">
-        <v>54249.3910666667</v>
+        <v>61681.5613</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27633</v>
+        <v>45799</v>
       </c>
       <c r="C4" t="n">
-        <v>812.2</v>
+        <v>6568.61</v>
       </c>
       <c r="D4" t="n">
-        <v>2993.4</v>
+        <v>7508.4608477</v>
       </c>
       <c r="E4" t="n">
-        <v>4339.39</v>
+        <v>5838.84898</v>
       </c>
       <c r="F4" t="n">
-        <v>1040.35</v>
+        <v>1989.969501</v>
       </c>
       <c r="G4" t="n">
-        <v>2157.31</v>
+        <v>2399.886854</v>
       </c>
       <c r="H4" t="n">
-        <v>712.23</v>
+        <v>828.572324</v>
       </c>
       <c r="I4" t="n">
-        <v>422.37</v>
+        <v>617.713501</v>
       </c>
       <c r="J4" t="n">
-        <v>54354.85</v>
+        <v>62490.524011262</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>26696</v>
+        <v>46849</v>
       </c>
       <c r="C5" t="n">
-        <v>862.3</v>
+        <v>7117.8368</v>
       </c>
       <c r="D5" t="n">
-        <v>3432.9</v>
+        <v>8549.523910269099</v>
       </c>
       <c r="E5" t="n">
-        <v>4411.5603</v>
+        <v>5911.863706</v>
       </c>
       <c r="F5" t="n">
-        <v>1109.8301</v>
+        <v>2057.478018</v>
       </c>
       <c r="G5" t="n">
-        <v>2149.8891</v>
+        <v>2394.244413</v>
       </c>
       <c r="H5" t="n">
-        <v>713.8587</v>
+        <v>830.612698</v>
       </c>
       <c r="I5" t="n">
-        <v>438.0124</v>
+        <v>627.4193770000001</v>
       </c>
       <c r="J5" t="n">
-        <v>54014.23</v>
+        <v>63473.303742</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27115</v>
+        <v>47073</v>
       </c>
       <c r="C6" t="n">
-        <v>993.8</v>
+        <v>7322.1047</v>
       </c>
       <c r="D6" t="n">
-        <v>3933</v>
+        <v>8884.4474933526</v>
       </c>
       <c r="E6" t="n">
-        <v>4636.58</v>
+        <v>5995.9380398588</v>
       </c>
       <c r="F6" t="n">
-        <v>1204</v>
+        <v>2115.8075165251</v>
       </c>
       <c r="G6" t="n">
-        <v>2221.89</v>
+        <v>2392.8550529244</v>
       </c>
       <c r="H6" t="n">
-        <v>735.96</v>
+        <v>845.3393322726</v>
       </c>
       <c r="I6" t="n">
-        <v>467.29</v>
+        <v>641.9368911367</v>
       </c>
       <c r="J6" t="n">
-        <v>54478.42</v>
+        <v>64539.528895</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26726</v>
+        <v>47340</v>
       </c>
       <c r="C7" t="n">
-        <v>1099.2</v>
+        <v>7582.9591</v>
       </c>
       <c r="D7" t="n">
-        <v>4375.70163868</v>
+        <v>9026.917691151501</v>
       </c>
       <c r="E7" t="n">
-        <v>4766.2183</v>
+        <v>6022.6028263308</v>
       </c>
       <c r="F7" t="n">
-        <v>1303.1794</v>
+        <v>2175.6896727253</v>
       </c>
       <c r="G7" t="n">
-        <v>2229.2897</v>
+        <v>2361.5661389068</v>
       </c>
       <c r="H7" t="n">
-        <v>743.8405</v>
+        <v>843.0596030571</v>
       </c>
       <c r="I7" t="n">
-        <v>489.4527</v>
+        <v>642.2781546415</v>
       </c>
       <c r="J7" t="n">
-        <v>55029.339</v>
+        <v>65872.64269399999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27493</v>
+        <v>47529</v>
       </c>
       <c r="C8" t="n">
-        <v>1243</v>
+        <v>7791.0629</v>
       </c>
       <c r="D8" t="n">
-        <v>4895.8</v>
+        <v>9238.26366641228</v>
       </c>
       <c r="E8" t="n">
-        <v>4927.6928</v>
+        <v>5984.4143879305</v>
       </c>
       <c r="F8" t="n">
-        <v>1385.8530832105</v>
+        <v>2207.065221492</v>
       </c>
       <c r="G8" t="n">
-        <v>2262.4963585402</v>
+        <v>2310.463822142</v>
       </c>
       <c r="H8" t="n">
-        <v>769.5053385507</v>
+        <v>829.9879090065</v>
       </c>
       <c r="I8" t="n">
-        <v>509.7467196986</v>
+        <v>636.89743529</v>
       </c>
       <c r="J8" t="n">
-        <v>55750.4959</v>
+        <v>67140.62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>27664</v>
+        <v>47498</v>
       </c>
       <c r="C9" t="n">
-        <v>1366.5755</v>
+        <v>7926.9195</v>
       </c>
       <c r="D9" t="n">
-        <v>5509.932702</v>
+        <v>9524.42</v>
       </c>
       <c r="E9" t="n">
-        <v>5107.83205</v>
+        <v>5859.4124314434</v>
       </c>
       <c r="F9" t="n">
-        <v>1502.97892</v>
+        <v>2220.2738304665</v>
       </c>
       <c r="G9" t="n">
-        <v>2297.20775</v>
+        <v>2221.8130484191</v>
       </c>
       <c r="H9" t="n">
-        <v>773.0154</v>
+        <v>797.5861676246</v>
       </c>
       <c r="I9" t="n">
-        <v>533.61868</v>
+        <v>619.7413809982</v>
       </c>
       <c r="J9" t="n">
-        <v>56518.3426666667</v>
+        <v>67815.572</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>44433</v>
+        <v>46515</v>
       </c>
       <c r="C10" t="n">
-        <v>5127.4371</v>
+        <v>8043.5263</v>
       </c>
       <c r="D10" t="n">
-        <v>5713.151959</v>
+        <v>9358.542322704399</v>
       </c>
       <c r="E10" t="n">
-        <v>5239.022745</v>
+        <v>5653.4201977737</v>
       </c>
       <c r="F10" t="n">
-        <v>1608.600449</v>
+        <v>2268.8425472068</v>
       </c>
       <c r="G10" t="n">
-        <v>2302.879554</v>
+        <v>2065.4275573957</v>
       </c>
       <c r="H10" t="n">
-        <v>780.077092</v>
+        <v>728.8762686612999</v>
       </c>
       <c r="I10" t="n">
-        <v>545.19595</v>
+        <v>590.2752245099</v>
       </c>
       <c r="J10" t="n">
-        <v>58471.680387</v>
+        <v>68271.64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>44804</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5512.0911</v>
-      </c>
+        <v>45445</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>6104.439093</v>
+        <v>9482.872331722199</v>
       </c>
       <c r="E11" t="n">
-        <v>5404.3523</v>
+        <v>5403.5855975607</v>
       </c>
       <c r="F11" t="n">
-        <v>1698.6872</v>
+        <v>2230.6698444543</v>
       </c>
       <c r="G11" t="n">
-        <v>2329.8827</v>
+        <v>1930.2076304406</v>
       </c>
       <c r="H11" t="n">
-        <v>797.7305</v>
+        <v>681.5774501158</v>
       </c>
       <c r="I11" t="n">
-        <v>564.2933</v>
+        <v>561.1306525541</v>
       </c>
       <c r="J11" t="n">
-        <v>59261.445897</v>
+        <v>68678.606</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>44815</v>
-      </c>
-      <c r="C12" t="n">
-        <v>5924.01906</v>
-      </c>
+          <t>2020年</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>6632.346918</v>
+        <v>6210.9809</v>
       </c>
       <c r="E12" t="n">
-        <v>5561.6799656749</v>
+        <v>5250.6549063706</v>
       </c>
       <c r="F12" t="n">
-        <v>1798.5017298163</v>
+        <v>2221.02226156239</v>
       </c>
       <c r="G12" t="n">
-        <v>2353.6819180408</v>
+        <v>1833.85923336422</v>
       </c>
       <c r="H12" t="n">
-        <v>805.6418963718</v>
+        <v>653.849419132748</v>
       </c>
       <c r="I12" t="n">
-        <v>586.4423214460001</v>
+        <v>541.91409231124</v>
       </c>
       <c r="J12" t="n">
-        <v>60347.698</v>
+        <v>69160.52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>45151</v>
-      </c>
-      <c r="C13" t="n">
-        <v>6212.3429</v>
-      </c>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>7139.615368</v>
+        <v>6736.3014326</v>
       </c>
       <c r="E13" t="n">
-        <v>5704.2356468</v>
+        <v>5191.25713</v>
       </c>
       <c r="F13" t="n">
-        <v>1895.0858179363</v>
+        <v>2294.03973</v>
       </c>
       <c r="G13" t="n">
-        <v>2381.416694715</v>
+        <v>1745.31929</v>
       </c>
       <c r="H13" t="n">
-        <v>819.1900880807</v>
+        <v>627.1465480000001</v>
       </c>
       <c r="I13" t="n">
-        <v>605.1289431682</v>
+        <v>524.751562</v>
       </c>
       <c r="J13" t="n">
-        <v>61681.5613</v>
+        <v>69609</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>45799</v>
-      </c>
-      <c r="C14" t="n">
-        <v>6568.61</v>
-      </c>
-      <c r="D14" t="n">
-        <v>7508.4608477</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>5838.84898</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1989.969501</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2399.886854</v>
-      </c>
-      <c r="H14" t="n">
-        <v>828.572324</v>
-      </c>
-      <c r="I14" t="n">
-        <v>617.713501</v>
-      </c>
+        <v>5079.1997</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>62490.524011262</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>46849</v>
-      </c>
-      <c r="C15" t="n">
-        <v>7117.8368</v>
-      </c>
-      <c r="D15" t="n">
-        <v>8549.523910269099</v>
-      </c>
-      <c r="E15" t="n">
-        <v>5911.863706</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2057.478018</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2394.244413</v>
-      </c>
-      <c r="H15" t="n">
-        <v>830.612698</v>
-      </c>
-      <c r="I15" t="n">
-        <v>627.4193770000001</v>
-      </c>
-      <c r="J15" t="n">
-        <v>63473.303742</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>47073</v>
-      </c>
-      <c r="C16" t="n">
-        <v>7322.1047</v>
-      </c>
-      <c r="D16" t="n">
-        <v>8884.4474933526</v>
-      </c>
-      <c r="E16" t="n">
-        <v>5995.9380398588</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2115.8075165251</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2392.8550529244</v>
-      </c>
-      <c r="H16" t="n">
-        <v>845.3393322726</v>
-      </c>
-      <c r="I16" t="n">
-        <v>641.9368911367</v>
-      </c>
-      <c r="J16" t="n">
-        <v>64539.528895</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>47340</v>
-      </c>
-      <c r="C17" t="n">
-        <v>7582.9591</v>
-      </c>
-      <c r="D17" t="n">
-        <v>9026.917691151501</v>
-      </c>
-      <c r="E17" t="n">
-        <v>6022.6028263308</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2175.6896727253</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2361.5661389068</v>
-      </c>
-      <c r="H17" t="n">
-        <v>843.0596030571</v>
-      </c>
-      <c r="I17" t="n">
-        <v>642.2781546415</v>
-      </c>
-      <c r="J17" t="n">
-        <v>65872.64269399999</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>47529</v>
-      </c>
-      <c r="C18" t="n">
-        <v>7791.0629</v>
-      </c>
-      <c r="D18" t="n">
-        <v>9238.26366641228</v>
-      </c>
-      <c r="E18" t="n">
-        <v>5984.4143879305</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2207.065221492</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2310.463822142</v>
-      </c>
-      <c r="H18" t="n">
-        <v>829.9879090065</v>
-      </c>
-      <c r="I18" t="n">
-        <v>636.89743529</v>
-      </c>
-      <c r="J18" t="n">
-        <v>67140.62</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>47498</v>
-      </c>
-      <c r="C19" t="n">
-        <v>7926.9195</v>
-      </c>
-      <c r="D19" t="n">
-        <v>9524.42</v>
-      </c>
-      <c r="E19" t="n">
-        <v>5859.4124314434</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2220.2738304665</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2221.8130484191</v>
-      </c>
-      <c r="H19" t="n">
-        <v>797.5861676246</v>
-      </c>
-      <c r="I19" t="n">
-        <v>619.7413809982</v>
-      </c>
-      <c r="J19" t="n">
-        <v>67815.572</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>46515</v>
-      </c>
-      <c r="C20" t="n">
-        <v>8043.5263</v>
-      </c>
-      <c r="D20" t="n">
-        <v>9358.542322704399</v>
-      </c>
-      <c r="E20" t="n">
-        <v>5653.4201977737</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2268.8425472068</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2065.4275573957</v>
-      </c>
-      <c r="H20" t="n">
-        <v>728.8762686612999</v>
-      </c>
-      <c r="I20" t="n">
-        <v>590.2752245099</v>
-      </c>
-      <c r="J20" t="n">
-        <v>68271.64</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>45445</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="n">
-        <v>9482.872331722199</v>
-      </c>
-      <c r="E21" t="n">
-        <v>5403.5855975607</v>
-      </c>
-      <c r="F21" t="n">
-        <v>2230.6698444543</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1930.2076304406</v>
-      </c>
-      <c r="H21" t="n">
-        <v>681.5774501158</v>
-      </c>
-      <c r="I21" t="n">
-        <v>561.1306525541</v>
-      </c>
-      <c r="J21" t="n">
-        <v>68678.606</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="n">
-        <v>9717.181356221599</v>
-      </c>
-      <c r="E22" t="n">
-        <v>5250.6549063706</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2221.02226156239</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1833.85923336422</v>
-      </c>
-      <c r="H22" t="n">
-        <v>653.849419132748</v>
-      </c>
-      <c r="I22" t="n">
-        <v>541.91409231124</v>
-      </c>
-      <c r="J22" t="n">
-        <v>69160.52</v>
+        <v>70162</v>
       </c>
     </row>
   </sheetData>
